--- a/2_BRD/20330001 -  Rev 01.xlsx
+++ b/2_BRD/20330001 -  Rev 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egortim\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simas/Проекты/Sulzer/sulzer_06/2_BRD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291934BB-4A35-4436-86F4-4EB40BABA61E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1762547-8CE8-FA49-8BEB-FD5A1F8473E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="500" yWindow="740" windowWidth="28900" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMU" sheetId="2" r:id="rId1"/>
@@ -18,8 +18,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PMU!$A$3:$AS$50</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">PMU!$3:$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">PMU!$A$1:$M$50</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">PMU!$3:$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,10 +43,17 @@
   <commentList>
     <comment ref="I13" authorId="0" shapeId="0" xr:uid="{798078CF-E7E8-4BC2-96E5-9F1CD322931E}">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     1 set = 2 pcs;</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -657,11 +664,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
-    <numFmt numFmtId="168" formatCode="00000"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="00000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -781,7 +788,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -803,6 +810,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1196,9 +1209,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
@@ -1254,31 +1267,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1287,13 +1300,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1339,7 +1352,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1354,7 +1367,7 @@
     <xf numFmtId="1" fontId="12" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1363,143 +1376,105 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1530,10 +1505,13 @@
     <xf numFmtId="1" fontId="14" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1830,72 +1808,71 @@
   </sheetPr>
   <dimension ref="A1:AU50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="3" topLeftCell="AQ14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3:H49"/>
+      <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="68" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" style="68" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="68" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" customWidth="1"/>
-    <col min="13" max="13" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="2.42578125" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="68" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" customWidth="1"/>
-    <col min="19" max="19" width="6.7109375" style="10" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.83203125" customWidth="1"/>
+    <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.1640625" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="16.5" customWidth="1"/>
+    <col min="14" max="14" width="2.5" customWidth="1"/>
+    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="18" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="6.6640625" style="10" customWidth="1"/>
+    <col min="20" max="20" width="14.5" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="23" width="6.5703125" style="2" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" customWidth="1"/>
-    <col min="25" max="25" width="7.42578125" customWidth="1"/>
-    <col min="26" max="26" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.85546875" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" customWidth="1"/>
-    <col min="30" max="30" width="14.140625" customWidth="1"/>
-    <col min="31" max="31" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.85546875" customWidth="1"/>
-    <col min="33" max="33" width="12.7109375" customWidth="1"/>
-    <col min="34" max="34" width="12.140625" customWidth="1"/>
-    <col min="35" max="35" width="12.7109375" customWidth="1"/>
-    <col min="36" max="36" width="3.85546875" customWidth="1"/>
-    <col min="37" max="37" width="7.28515625" customWidth="1"/>
-    <col min="38" max="38" width="2.5703125" customWidth="1"/>
-    <col min="39" max="39" width="6.28515625" customWidth="1"/>
-    <col min="40" max="40" width="4.5703125" customWidth="1"/>
-    <col min="41" max="41" width="5.28515625" customWidth="1"/>
-    <col min="42" max="42" width="63.5703125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="7.7109375" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="68"/>
+    <col min="22" max="23" width="6.5" style="2" customWidth="1"/>
+    <col min="24" max="24" width="14.33203125" customWidth="1"/>
+    <col min="25" max="25" width="7.5" customWidth="1"/>
+    <col min="26" max="26" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="12.83203125" customWidth="1"/>
+    <col min="29" max="29" width="15.6640625" customWidth="1"/>
+    <col min="30" max="30" width="14.1640625" customWidth="1"/>
+    <col min="31" max="31" width="3.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.83203125" customWidth="1"/>
+    <col min="33" max="33" width="12.6640625" customWidth="1"/>
+    <col min="34" max="34" width="12.1640625" customWidth="1"/>
+    <col min="35" max="35" width="12.6640625" customWidth="1"/>
+    <col min="36" max="36" width="3.83203125" customWidth="1"/>
+    <col min="37" max="37" width="7.33203125" customWidth="1"/>
+    <col min="38" max="38" width="2.5" customWidth="1"/>
+    <col min="39" max="39" width="6.33203125" customWidth="1"/>
+    <col min="40" max="40" width="4.5" customWidth="1"/>
+    <col min="41" max="41" width="5.33203125" customWidth="1"/>
+    <col min="42" max="42" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.83203125"/>
+    <col min="44" max="44" width="7.6640625" customWidth="1"/>
+    <col min="45" max="45" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="62" customFormat="1" ht="23.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36"/>
-      <c r="B1" s="36"/>
+    <row r="1" spans="1:47" s="36" customFormat="1" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J1" s="51" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="53">
         <v>1</v>
       </c>
-      <c r="L1" s="107" t="s">
+      <c r="L1" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="108"/>
+      <c r="M1" s="92"/>
       <c r="N1" s="37"/>
       <c r="O1" s="38" t="s">
         <v>10</v>
@@ -1903,49 +1880,35 @@
       <c r="P1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="Q1" s="39" t="s">
         <v>10</v>
       </c>
       <c r="R1" s="39" t="s">
         <v>19</v>
       </c>
       <c r="S1" s="40"/>
-      <c r="T1" s="109" t="s">
+      <c r="T1" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="110"/>
-      <c r="V1" s="113" t="s">
+      <c r="U1" s="94"/>
+      <c r="V1" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="114"/>
-      <c r="X1" s="114"/>
-      <c r="Y1" s="114"/>
-      <c r="Z1" s="114"/>
-      <c r="AA1" s="114"/>
-      <c r="AB1" s="114"/>
-      <c r="AC1" s="115"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="99" t="s">
+      <c r="W1" s="98"/>
+      <c r="X1" s="98"/>
+      <c r="Y1" s="98"/>
+      <c r="Z1" s="98"/>
+      <c r="AA1" s="98"/>
+      <c r="AB1" s="98"/>
+      <c r="AC1" s="99"/>
+      <c r="AF1" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="101"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="36"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="36"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="36"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="85"/>
     </row>
-    <row r="2" spans="1:47" s="63" customFormat="1" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
+    <row r="2" spans="1:47" s="10" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J2" s="52" t="s">
         <v>23</v>
       </c>
@@ -1959,44 +1922,32 @@
         <v>21</v>
       </c>
       <c r="N2" s="43"/>
-      <c r="O2" s="105" t="s">
+      <c r="O2" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="105" t="str">
+      <c r="P2" s="90"/>
+      <c r="Q2" s="89" t="str">
         <f>O2</f>
         <v>Ensival</v>
       </c>
-      <c r="R2" s="106"/>
+      <c r="R2" s="90"/>
       <c r="S2" s="14"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="112"/>
-      <c r="V2" s="116"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
-      <c r="AA2" s="117"/>
-      <c r="AB2" s="117"/>
-      <c r="AC2" s="118"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="102"/>
-      <c r="AG2" s="103"/>
-      <c r="AH2" s="103"/>
-      <c r="AI2" s="104"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10"/>
-      <c r="AQ2" s="10"/>
-      <c r="AR2" s="10"/>
-      <c r="AS2" s="10"/>
+      <c r="T2" s="95"/>
+      <c r="U2" s="96"/>
+      <c r="V2" s="100"/>
+      <c r="W2" s="101"/>
+      <c r="X2" s="101"/>
+      <c r="Y2" s="101"/>
+      <c r="Z2" s="101"/>
+      <c r="AA2" s="101"/>
+      <c r="AB2" s="101"/>
+      <c r="AC2" s="102"/>
+      <c r="AF2" s="86"/>
+      <c r="AG2" s="87"/>
+      <c r="AH2" s="87"/>
+      <c r="AI2" s="88"/>
     </row>
-    <row r="3" spans="1:47" s="63" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" s="10" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
@@ -2085,7 +2036,6 @@
       <c r="AD3" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="AE3" s="10"/>
       <c r="AF3" s="18" t="s">
         <v>36</v>
       </c>
@@ -2098,45 +2048,36 @@
       <c r="AI3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AJ3" s="10"/>
       <c r="AK3" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="AL3" s="10"/>
-      <c r="AM3" s="10"/>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
     </row>
-    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15">
         <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="66" t="s">
+      <c r="D4" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="67" t="s">
+      <c r="H4" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="61">
         <v>3</v>
       </c>
       <c r="J4" s="21"/>
@@ -2144,7 +2085,7 @@
         <f t="shared" ref="K4:K49" si="0">J4/I4</f>
         <v>0</v>
       </c>
-      <c r="L4" s="71">
+      <c r="L4" s="67">
         <f t="shared" ref="L4:L49" si="1">ROUNDUP((IF((AI4&gt;0),(AI4/$K$1/$K$2),(((MAX(AF4:AH4))/$K$1/$K$2)))), 0)</f>
         <v>804</v>
       </c>
@@ -2161,7 +2102,7 @@
         <f t="shared" ref="P4:P49" si="4">O4*I4</f>
         <v>2042.7745664739884</v>
       </c>
-      <c r="Q4" s="71">
+      <c r="Q4" s="67">
         <v>441.75</v>
       </c>
       <c r="R4" s="22">
@@ -2185,7 +2126,7 @@
       </c>
       <c r="X4" s="32"/>
       <c r="Y4" s="31"/>
-      <c r="Z4" s="95"/>
+      <c r="Z4" s="80"/>
       <c r="AA4" s="50">
         <v>1</v>
       </c>
@@ -2218,154 +2159,152 @@
       </c>
       <c r="AI4" s="22"/>
       <c r="AK4" s="21"/>
-      <c r="AM4" t="s">
+      <c r="AM4" s="103" t="s">
         <v>26</v>
       </c>
-      <c r="AN4" s="2">
+      <c r="AN4" s="104">
         <f t="shared" ref="AN4:AN49" si="13">I4</f>
         <v>3</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AO4" s="103" t="s">
         <v>27</v>
       </c>
-      <c r="AP4" s="4" t="str">
+      <c r="AP4" s="105" t="str">
         <f t="shared" ref="AP4:AP49" si="14">D4</f>
         <v>BEARING NUT</v>
       </c>
-      <c r="AQ4" s="2">
+      <c r="AQ4" s="104">
         <f t="shared" ref="AQ4:AQ49" si="15">IF(B4&gt;0, B4, "")</f>
         <v>2</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="103">
         <v>2001</v>
       </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="68">
+      <c r="AS4" s="103">
+        <v>0</v>
+      </c>
+      <c r="AU4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73">
+    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
         <v>5</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="79">
         <v>3</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="65" t="s">
+      <c r="F5" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="64">
+      <c r="I5" s="61">
         <v>3</v>
       </c>
-      <c r="J5" s="75"/>
-      <c r="K5" s="76">
+      <c r="J5" s="68"/>
+      <c r="K5" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="71">
+      <c r="L5" s="67">
         <f t="shared" si="1"/>
         <v>1931</v>
       </c>
-      <c r="M5" s="76">
+      <c r="M5" s="69">
         <f t="shared" si="2"/>
         <v>5793</v>
       </c>
-      <c r="N5" s="77"/>
-      <c r="O5" s="71">
+      <c r="N5" s="13"/>
+      <c r="O5" s="67">
         <f t="shared" si="3"/>
         <v>1636.9942196531792</v>
       </c>
-      <c r="P5" s="78">
+      <c r="P5" s="70">
         <f t="shared" si="4"/>
         <v>4910.9826589595377</v>
       </c>
-      <c r="Q5" s="71">
+      <c r="Q5" s="67">
         <v>1062</v>
       </c>
-      <c r="R5" s="76">
+      <c r="R5" s="69">
         <f t="shared" si="5"/>
         <v>3186</v>
       </c>
-      <c r="S5" s="79">
+      <c r="S5" s="60">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T5" s="71">
+      <c r="T5" s="67">
         <f t="shared" si="6"/>
         <v>1930.9090909090908</v>
       </c>
-      <c r="U5" s="76">
+      <c r="U5" s="69">
         <f t="shared" si="7"/>
         <v>5792.7272727272721</v>
       </c>
-      <c r="V5" s="80"/>
-      <c r="W5" s="81">
-        <v>1</v>
-      </c>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="85">
-        <v>1</v>
-      </c>
-      <c r="AB5" s="86">
+      <c r="V5" s="30"/>
+      <c r="W5" s="55">
+        <v>1</v>
+      </c>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="31"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="73">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="74">
         <v>0.94</v>
       </c>
       <c r="AC5" s="34">
         <f t="shared" ref="AC5:AC49" si="16">IF(Y5&gt;2017,((X5*AA5*W5)/(POWER(AB5, (2024-Y5)))), ((X5*AA5*W5)/(POWER(AB5, 5))))</f>
         <v>0</v>
       </c>
-      <c r="AD5" s="87">
+      <c r="AD5" s="75">
         <f t="shared" si="8"/>
         <v>1931</v>
       </c>
-      <c r="AE5" s="88">
+      <c r="AE5" s="2">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="AF5" s="71">
+      <c r="AF5" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG5" s="89">
+      <c r="AG5" s="76">
         <f t="shared" si="11"/>
         <v>1930.9090909090908</v>
       </c>
-      <c r="AH5" s="89">
+      <c r="AH5" s="76">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="89"/>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="68" t="s">
+      <c r="AI5" s="70"/>
+      <c r="AK5" s="76"/>
+      <c r="AM5" t="s">
         <v>26</v>
       </c>
-      <c r="AN5" s="88">
+      <c r="AN5" s="2">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="AO5" s="68" t="s">
+      <c r="AO5" t="s">
         <v>27</v>
       </c>
-      <c r="AP5" s="90" t="str">
+      <c r="AP5" s="4" t="str">
         <f t="shared" si="14"/>
         <v>COUPLING NEUP H180 DBSE200</v>
       </c>
@@ -2373,42 +2312,42 @@
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="AR5" s="68">
+      <c r="AR5">
         <v>2001</v>
       </c>
-      <c r="AS5" s="68">
-        <v>0</v>
-      </c>
-      <c r="AU5" s="68">
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="16">
         <v>47</v>
       </c>
       <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="D6" s="66" t="s">
+      <c r="D6" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="E6" s="98" t="s">
+      <c r="E6" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="F6" s="65" t="s">
+      <c r="F6" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="64">
+      <c r="I6" s="61">
         <v>5</v>
       </c>
       <c r="J6" s="26"/>
@@ -2416,7 +2355,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="67">
         <f t="shared" si="1"/>
         <v>188</v>
       </c>
@@ -2433,7 +2372,7 @@
         <f t="shared" si="4"/>
         <v>341.04046242774564</v>
       </c>
-      <c r="Q6" s="71">
+      <c r="Q6" s="67">
         <v>44.25</v>
       </c>
       <c r="R6" s="25">
@@ -2523,36 +2462,36 @@
       <c r="AS6">
         <v>0</v>
       </c>
-      <c r="AU6" s="68">
+      <c r="AU6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="17">
         <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="65" t="s">
+      <c r="F7" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="67">
+      <c r="H7" s="64">
         <v>55</v>
       </c>
-      <c r="I7" s="64">
+      <c r="I7" s="61">
         <v>4</v>
       </c>
       <c r="J7" s="26"/>
@@ -2560,7 +2499,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L7" s="71">
+      <c r="L7" s="67">
         <f t="shared" si="1"/>
         <v>13498</v>
       </c>
@@ -2577,7 +2516,7 @@
         <f t="shared" si="4"/>
         <v>56416.184971098264</v>
       </c>
-      <c r="Q7" s="71">
+      <c r="Q7" s="67">
         <v>9150</v>
       </c>
       <c r="R7" s="25">
@@ -2669,36 +2608,36 @@
       <c r="AS7">
         <v>0</v>
       </c>
-      <c r="AU7" s="68">
+      <c r="AU7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="93">
+    <row r="8" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="78">
         <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>12</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D8" s="66" t="s">
+      <c r="D8" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="E8" s="66" t="s">
+      <c r="E8" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="65" t="s">
+      <c r="F8" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="67">
+      <c r="H8" s="64">
         <v>51</v>
       </c>
-      <c r="I8" s="64">
+      <c r="I8" s="61">
         <v>1</v>
       </c>
       <c r="J8" s="26"/>
@@ -2706,7 +2645,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="67">
         <f t="shared" si="1"/>
         <v>49660</v>
       </c>
@@ -2723,7 +2662,7 @@
         <f t="shared" si="4"/>
         <v>42100.578034682083</v>
       </c>
-      <c r="Q8" s="71">
+      <c r="Q8" s="67">
         <v>27312.75</v>
       </c>
       <c r="R8" s="25">
@@ -2804,36 +2743,36 @@
       <c r="AS8">
         <v>0</v>
       </c>
-      <c r="AU8" s="68">
+      <c r="AU8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="15">
         <v>15</v>
       </c>
       <c r="B9" s="1">
         <v>13</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D9" s="66" t="s">
+      <c r="D9" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="E9" s="66" t="s">
+      <c r="E9" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="67">
+      <c r="H9" s="64">
         <v>55</v>
       </c>
-      <c r="I9" s="64">
+      <c r="I9" s="61">
         <v>2</v>
       </c>
       <c r="J9" s="26"/>
@@ -2841,7 +2780,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="71">
+      <c r="L9" s="67">
         <f t="shared" si="1"/>
         <v>10695</v>
       </c>
@@ -2858,7 +2797,7 @@
         <f t="shared" si="4"/>
         <v>18134.104046242774</v>
       </c>
-      <c r="Q9" s="71">
+      <c r="Q9" s="67">
         <v>5882.25</v>
       </c>
       <c r="R9" s="25">
@@ -2947,130 +2886,128 @@
       <c r="AS9">
         <v>0</v>
       </c>
-      <c r="AU9" s="68">
+      <c r="AU9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73">
+    <row r="10" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
         <v>16</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B10" s="1">
         <v>15</v>
       </c>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="66" t="s">
+      <c r="D10" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E10" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="65" t="s">
+      <c r="F10" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="67" t="s">
+      <c r="H10" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I10" s="64">
+      <c r="I10" s="61">
         <v>5</v>
       </c>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76">
+      <c r="J10" s="68"/>
+      <c r="K10" s="69">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L10" s="71">
+      <c r="L10" s="67">
         <f t="shared" si="1"/>
         <v>1856</v>
       </c>
-      <c r="M10" s="76">
+      <c r="M10" s="69">
         <f t="shared" si="2"/>
         <v>9280</v>
       </c>
-      <c r="N10" s="77"/>
-      <c r="O10" s="71">
+      <c r="N10" s="13"/>
+      <c r="O10" s="67">
         <f t="shared" si="3"/>
         <v>1573.3333333333335</v>
       </c>
-      <c r="P10" s="78">
+      <c r="P10" s="70">
         <f t="shared" si="4"/>
         <v>7866.6666666666679</v>
       </c>
-      <c r="Q10" s="71">
+      <c r="Q10" s="67">
         <v>1020.7</v>
       </c>
-      <c r="R10" s="76">
+      <c r="R10" s="69">
         <f t="shared" si="5"/>
         <v>5103.5</v>
       </c>
-      <c r="S10" s="79">
+      <c r="S10" s="60">
         <v>0.55000000000000004</v>
       </c>
-      <c r="T10" s="71">
+      <c r="T10" s="67">
         <f t="shared" si="6"/>
         <v>1855.8181818181818</v>
       </c>
-      <c r="U10" s="76">
+      <c r="U10" s="69">
         <f t="shared" si="7"/>
         <v>9279.0909090909081</v>
       </c>
-      <c r="V10" s="80"/>
-      <c r="W10" s="81">
-        <v>1</v>
-      </c>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="83"/>
-      <c r="Z10" s="84"/>
-      <c r="AA10" s="85">
-        <v>1</v>
-      </c>
-      <c r="AB10" s="86">
+      <c r="V10" s="30"/>
+      <c r="W10" s="55">
+        <v>1</v>
+      </c>
+      <c r="X10" s="71"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="72"/>
+      <c r="AA10" s="73">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="74">
         <v>0.94</v>
       </c>
       <c r="AC10" s="34">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="87">
+      <c r="AD10" s="75">
         <f t="shared" si="8"/>
         <v>1856</v>
       </c>
-      <c r="AE10" s="88">
+      <c r="AE10" s="2">
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="AF10" s="71">
+      <c r="AF10" s="67">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="89">
+      <c r="AG10" s="76">
         <f t="shared" si="11"/>
         <v>1855.8181818181818</v>
       </c>
-      <c r="AH10" s="89">
+      <c r="AH10" s="76">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AI10" s="78"/>
-      <c r="AJ10" s="68"/>
-      <c r="AK10" s="89"/>
-      <c r="AL10" s="68"/>
-      <c r="AM10" s="68" t="s">
+      <c r="AI10" s="70"/>
+      <c r="AK10" s="76"/>
+      <c r="AM10" t="s">
         <v>26</v>
       </c>
-      <c r="AN10" s="88">
+      <c r="AN10" s="2">
         <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="AO10" s="68" t="s">
+      <c r="AO10" t="s">
         <v>27</v>
       </c>
-      <c r="AP10" s="90" t="str">
+      <c r="AP10" s="4" t="str">
         <f t="shared" si="14"/>
         <v>COUPLING NEUP H180 DBSE180</v>
       </c>
@@ -3078,42 +3015,42 @@
         <f t="shared" si="15"/>
         <v>15</v>
       </c>
-      <c r="AR10" s="68">
+      <c r="AR10">
         <v>2001</v>
       </c>
-      <c r="AS10" s="68">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="68">
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="15">
         <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>20</v>
       </c>
-      <c r="C11" s="66" t="s">
+      <c r="C11" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="D11" s="66" t="s">
+      <c r="D11" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E11" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="65" t="s">
+      <c r="F11" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="66" t="s">
+      <c r="G11" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H11" s="67">
+      <c r="H11" s="64">
         <v>59</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="61">
         <v>17</v>
       </c>
       <c r="J11" s="26"/>
@@ -3121,7 +3058,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L11" s="71">
+      <c r="L11" s="67">
         <f t="shared" si="1"/>
         <v>9328</v>
       </c>
@@ -3138,7 +3075,7 @@
         <f t="shared" si="4"/>
         <v>127706.35838150288</v>
       </c>
-      <c r="Q11" s="71">
+      <c r="Q11" s="67">
         <v>4873.5</v>
       </c>
       <c r="R11" s="25">
@@ -3227,36 +3164,36 @@
       <c r="AS11">
         <v>0</v>
       </c>
-      <c r="AU11" s="68">
+      <c r="AU11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>48</v>
       </c>
       <c r="B12" s="1">
         <v>21</v>
       </c>
-      <c r="C12" s="66" t="s">
+      <c r="C12" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="66" t="s">
+      <c r="D12" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="F12" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="64">
+      <c r="I12" s="61">
         <v>44</v>
       </c>
       <c r="J12" s="26"/>
@@ -3264,7 +3201,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L12" s="71">
+      <c r="L12" s="67">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
@@ -3281,7 +3218,7 @@
         <f t="shared" si="4"/>
         <v>4361.6801541425821</v>
       </c>
-      <c r="Q12" s="71">
+      <c r="Q12" s="67">
         <v>64.31</v>
       </c>
       <c r="R12" s="25">
@@ -3371,36 +3308,36 @@
       <c r="AS12">
         <v>0</v>
       </c>
-      <c r="AU12" s="68">
+      <c r="AU12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="93">
+    <row r="13" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="78">
         <v>20</v>
       </c>
       <c r="B13" s="1">
         <v>24</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="E13" s="66" t="s">
+      <c r="E13" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="65" t="s">
+      <c r="F13" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="G13" s="66" t="s">
+      <c r="G13" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="67">
+      <c r="H13" s="64">
         <v>68</v>
       </c>
-      <c r="I13" s="64">
+      <c r="I13" s="61">
         <v>8</v>
       </c>
       <c r="J13" s="26"/>
@@ -3408,7 +3345,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L13" s="71">
+      <c r="L13" s="67">
         <f t="shared" si="1"/>
         <v>3328</v>
       </c>
@@ -3425,7 +3362,7 @@
         <f t="shared" si="4"/>
         <v>22566.473988439306</v>
       </c>
-      <c r="Q13" s="71">
+      <c r="Q13" s="67">
         <v>1830</v>
       </c>
       <c r="R13" s="25">
@@ -3506,36 +3443,36 @@
       <c r="AS13">
         <v>0</v>
       </c>
-      <c r="AU13" s="68">
+      <c r="AU13">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>21</v>
       </c>
       <c r="B14" s="1">
         <v>25</v>
       </c>
-      <c r="C14" s="66" t="s">
+      <c r="C14" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D14" s="66" t="s">
+      <c r="D14" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="66" t="s">
+      <c r="E14" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="65" t="s">
+      <c r="F14" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G14" s="66" t="s">
+      <c r="G14" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="67">
+      <c r="H14" s="64">
         <v>55</v>
       </c>
-      <c r="I14" s="64">
+      <c r="I14" s="61">
         <v>1</v>
       </c>
       <c r="J14" s="26"/>
@@ -3543,7 +3480,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L14" s="71">
+      <c r="L14" s="67">
         <f t="shared" si="1"/>
         <v>10695</v>
       </c>
@@ -3560,7 +3497,7 @@
         <f t="shared" si="4"/>
         <v>9067.0520231213868</v>
       </c>
-      <c r="Q14" s="71">
+      <c r="Q14" s="67">
         <v>5882.25</v>
       </c>
       <c r="R14" s="25">
@@ -3649,36 +3586,36 @@
       <c r="AS14">
         <v>0</v>
       </c>
-      <c r="AU14" s="68">
+      <c r="AU14">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>22</v>
       </c>
       <c r="B15" s="1">
         <v>26</v>
       </c>
-      <c r="C15" s="66" t="s">
+      <c r="C15" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="66" t="s">
+      <c r="D15" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="E15" s="66" t="s">
+      <c r="E15" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="65" t="s">
+      <c r="F15" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="66" t="s">
+      <c r="G15" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="H15" s="67" t="s">
+      <c r="H15" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="61">
         <v>1</v>
       </c>
       <c r="J15" s="26"/>
@@ -3686,7 +3623,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="71">
+      <c r="L15" s="67">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
@@ -3703,7 +3640,7 @@
         <f t="shared" si="4"/>
         <v>20.007707129094413</v>
       </c>
-      <c r="Q15" s="71">
+      <c r="Q15" s="67">
         <v>12.98</v>
       </c>
       <c r="R15" s="25">
@@ -3784,36 +3721,36 @@
       <c r="AS15">
         <v>0</v>
       </c>
-      <c r="AU15" s="68">
+      <c r="AU15">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="93">
+    <row r="16" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="78">
         <v>23</v>
       </c>
       <c r="B16" s="1">
         <v>32</v>
       </c>
-      <c r="C16" s="66" t="s">
+      <c r="C16" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="66" t="s">
+      <c r="D16" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="66" t="s">
+      <c r="E16" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="65" t="s">
+      <c r="F16" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="66" t="s">
+      <c r="G16" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="67">
+      <c r="H16" s="64">
         <v>55</v>
       </c>
-      <c r="I16" s="64">
+      <c r="I16" s="61">
         <v>2</v>
       </c>
       <c r="J16" s="26"/>
@@ -3821,7 +3758,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L16" s="71">
+      <c r="L16" s="67">
         <f t="shared" si="1"/>
         <v>10695</v>
       </c>
@@ -3838,7 +3775,7 @@
         <f t="shared" si="4"/>
         <v>18134.104046242774</v>
       </c>
-      <c r="Q16" s="71">
+      <c r="Q16" s="67">
         <v>5882.25</v>
       </c>
       <c r="R16" s="25">
@@ -3927,36 +3864,36 @@
       <c r="AS16">
         <v>0</v>
       </c>
-      <c r="AU16" s="68">
+      <c r="AU16">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>24</v>
       </c>
       <c r="B17" s="1">
         <v>33</v>
       </c>
-      <c r="C17" s="66" t="s">
+      <c r="C17" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="66" t="s">
+      <c r="D17" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="E17" s="66" t="s">
+      <c r="E17" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="65" t="s">
+      <c r="F17" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="G17" s="66" t="s">
+      <c r="G17" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="67">
+      <c r="H17" s="64">
         <v>9</v>
       </c>
-      <c r="I17" s="64">
+      <c r="I17" s="61">
         <v>9</v>
       </c>
       <c r="J17" s="26"/>
@@ -3964,7 +3901,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L17" s="71">
+      <c r="L17" s="67">
         <f t="shared" si="1"/>
         <v>1120</v>
       </c>
@@ -3981,7 +3918,7 @@
         <f t="shared" si="4"/>
         <v>8542.1965317919075</v>
       </c>
-      <c r="Q17" s="71">
+      <c r="Q17" s="67">
         <v>615.75</v>
       </c>
       <c r="R17" s="25">
@@ -4062,36 +3999,36 @@
       <c r="AS17">
         <v>0</v>
       </c>
-      <c r="AU17" s="68">
+      <c r="AU17">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>25</v>
       </c>
-      <c r="B18" s="74">
+      <c r="B18" s="1">
         <v>34</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="66" t="s">
+      <c r="D18" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="E18" s="66" t="s">
+      <c r="E18" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="65" t="s">
+      <c r="F18" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="G18" s="66" t="s">
+      <c r="G18" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="67" t="s">
+      <c r="H18" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="64">
+      <c r="I18" s="61">
         <v>2</v>
       </c>
       <c r="J18" s="26"/>
@@ -4099,7 +4036,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="71">
+      <c r="L18" s="67">
         <f t="shared" si="1"/>
         <v>2301</v>
       </c>
@@ -4116,7 +4053,7 @@
         <f t="shared" si="4"/>
         <v>3900.5780346820811</v>
       </c>
-      <c r="Q18" s="71">
+      <c r="Q18" s="67">
         <v>1265.25</v>
       </c>
       <c r="R18" s="25">
@@ -4197,36 +4134,36 @@
       <c r="AS18">
         <v>0</v>
       </c>
-      <c r="AU18" s="68">
+      <c r="AU18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="93">
+    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="78">
         <v>26</v>
       </c>
       <c r="B19" s="1">
         <v>37</v>
       </c>
-      <c r="C19" s="66" t="s">
+      <c r="C19" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="E19" s="66" t="s">
+      <c r="E19" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="65" t="s">
+      <c r="F19" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="G19" s="66" t="s">
+      <c r="G19" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="67">
+      <c r="H19" s="64">
         <v>58</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="61">
         <v>3</v>
       </c>
       <c r="J19" s="26"/>
@@ -4234,7 +4171,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L19" s="71">
+      <c r="L19" s="67">
         <f t="shared" si="1"/>
         <v>1757</v>
       </c>
@@ -4251,7 +4188,7 @@
         <f t="shared" si="4"/>
         <v>4467.0520231213877</v>
       </c>
-      <c r="Q19" s="71">
+      <c r="Q19" s="67">
         <v>966</v>
       </c>
       <c r="R19" s="25">
@@ -4332,36 +4269,36 @@
       <c r="AS19">
         <v>0</v>
       </c>
-      <c r="AU19" s="68">
+      <c r="AU19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>29</v>
       </c>
       <c r="B20" s="1">
         <v>41</v>
       </c>
-      <c r="C20" s="66" t="s">
+      <c r="C20" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="D20" s="66" t="s">
+      <c r="D20" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="66" t="s">
+      <c r="E20" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="65" t="s">
+      <c r="F20" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="I20" s="64">
+      <c r="I20" s="61">
         <v>4</v>
       </c>
       <c r="J20" s="26"/>
@@ -4369,7 +4306,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L20" s="71">
+      <c r="L20" s="67">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -4386,7 +4323,7 @@
         <f t="shared" si="4"/>
         <v>18.188824662813104</v>
       </c>
-      <c r="Q20" s="71">
+      <c r="Q20" s="67">
         <v>2.95</v>
       </c>
       <c r="R20" s="25">
@@ -4467,36 +4404,36 @@
       <c r="AS20">
         <v>0</v>
       </c>
-      <c r="AU20" s="68">
+      <c r="AU20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>30</v>
       </c>
       <c r="B21" s="1">
         <v>42</v>
       </c>
-      <c r="C21" s="66" t="s">
+      <c r="C21" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="D21" s="66" t="s">
+      <c r="D21" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="66" t="s">
+      <c r="E21" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F21" s="65" t="s">
+      <c r="F21" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="66" t="s">
+      <c r="G21" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="H21" s="67">
+      <c r="H21" s="64">
         <v>55</v>
       </c>
-      <c r="I21" s="64">
+      <c r="I21" s="61">
         <v>5</v>
       </c>
       <c r="J21" s="26"/>
@@ -4504,7 +4441,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L21" s="71">
+      <c r="L21" s="67">
         <f t="shared" si="1"/>
         <v>7403</v>
       </c>
@@ -4521,7 +4458,7 @@
         <f t="shared" si="4"/>
         <v>29809.248554913298</v>
       </c>
-      <c r="Q21" s="71">
+      <c r="Q21" s="67">
         <v>3867.75</v>
       </c>
       <c r="R21" s="25">
@@ -4610,36 +4547,36 @@
       <c r="AS21">
         <v>0</v>
       </c>
-      <c r="AU21" s="68">
+      <c r="AU21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="17">
         <v>37</v>
       </c>
       <c r="B22" s="1">
         <v>47</v>
       </c>
-      <c r="C22" s="66" t="s">
+      <c r="C22" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D22" s="66" t="s">
+      <c r="D22" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="E22" s="66" t="s">
+      <c r="E22" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F22" s="65" t="s">
+      <c r="F22" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="66" t="s">
+      <c r="G22" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="67">
+      <c r="H22" s="64">
         <v>9</v>
       </c>
-      <c r="I22" s="64">
+      <c r="I22" s="61">
         <v>8</v>
       </c>
       <c r="J22" s="26"/>
@@ -4647,7 +4584,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L22" s="71">
+      <c r="L22" s="67">
         <f t="shared" si="1"/>
         <v>577</v>
       </c>
@@ -4664,7 +4601,7 @@
         <f t="shared" si="4"/>
         <v>3912.1387283236995</v>
       </c>
-      <c r="Q22" s="71">
+      <c r="Q22" s="67">
         <v>317.25</v>
       </c>
       <c r="R22" s="25">
@@ -4745,36 +4682,36 @@
       <c r="AS22">
         <v>0</v>
       </c>
-      <c r="AU22" s="68">
+      <c r="AU22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>38</v>
       </c>
       <c r="B23" s="1">
         <v>48</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="66" t="s">
+      <c r="D23" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="66" t="s">
+      <c r="E23" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="F23" s="65" t="s">
+      <c r="F23" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="66" t="s">
+      <c r="G23" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H23" s="67">
+      <c r="H23" s="64">
         <v>55</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="61">
         <v>5</v>
       </c>
       <c r="J23" s="26"/>
@@ -4782,7 +4719,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L23" s="71">
+      <c r="L23" s="67">
         <f t="shared" si="1"/>
         <v>11258</v>
       </c>
@@ -4799,7 +4736,7 @@
         <f t="shared" si="4"/>
         <v>45335.260115606936</v>
       </c>
-      <c r="Q23" s="71">
+      <c r="Q23" s="67">
         <v>5882.25</v>
       </c>
       <c r="R23" s="25">
@@ -4888,36 +4825,36 @@
       <c r="AS23">
         <v>0</v>
       </c>
-      <c r="AU23" s="68">
+      <c r="AU23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="15">
         <v>39</v>
       </c>
       <c r="B24" s="1">
         <v>49</v>
       </c>
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="66" t="s">
+      <c r="D24" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="E24" s="66" t="s">
+      <c r="E24" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="F24" s="65" t="s">
+      <c r="F24" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="67" t="s">
+      <c r="H24" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="64">
+      <c r="I24" s="61">
         <v>3</v>
       </c>
       <c r="J24" s="26"/>
@@ -4925,7 +4862,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L24" s="71">
+      <c r="L24" s="67">
         <f t="shared" si="1"/>
         <v>1881</v>
       </c>
@@ -4942,7 +4879,7 @@
         <f t="shared" si="4"/>
         <v>4782.7514450867056</v>
       </c>
-      <c r="Q24" s="71">
+      <c r="Q24" s="67">
         <v>1034.27</v>
       </c>
       <c r="R24" s="25">
@@ -5023,36 +4960,36 @@
       <c r="AS24">
         <v>0</v>
       </c>
-      <c r="AU24" s="68">
+      <c r="AU24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="17">
         <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>53</v>
       </c>
-      <c r="C25" s="66" t="s">
+      <c r="C25" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="66" t="s">
+      <c r="D25" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="E25" s="66" t="s">
+      <c r="E25" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="F25" s="65" t="s">
+      <c r="F25" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="H25" s="67" t="s">
+      <c r="H25" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="I25" s="64">
+      <c r="I25" s="61">
         <v>22</v>
       </c>
       <c r="J25" s="26"/>
@@ -5060,7 +4997,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L25" s="71">
+      <c r="L25" s="67">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -5077,7 +5014,7 @@
         <f t="shared" si="4"/>
         <v>600.23121387283231</v>
       </c>
-      <c r="Q25" s="71">
+      <c r="Q25" s="67">
         <v>17.7</v>
       </c>
       <c r="R25" s="25">
@@ -5158,36 +5095,36 @@
       <c r="AS25">
         <v>0</v>
       </c>
-      <c r="AU25" s="68">
+      <c r="AU25">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="15">
         <v>43</v>
       </c>
       <c r="B26" s="1">
         <v>54</v>
       </c>
-      <c r="C26" s="66" t="s">
+      <c r="C26" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="66" t="s">
+      <c r="D26" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="E26" s="66" t="s">
+      <c r="E26" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="F26" s="65" t="s">
+      <c r="F26" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="64">
         <v>55</v>
       </c>
-      <c r="I26" s="64">
+      <c r="I26" s="61">
         <v>1</v>
       </c>
       <c r="J26" s="26"/>
@@ -5195,7 +5132,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L26" s="71">
+      <c r="L26" s="67">
         <f t="shared" si="1"/>
         <v>11258</v>
       </c>
@@ -5212,7 +5149,7 @@
         <f t="shared" si="4"/>
         <v>9067.0520231213868</v>
       </c>
-      <c r="Q26" s="71">
+      <c r="Q26" s="67">
         <v>5882.25</v>
       </c>
       <c r="R26" s="25">
@@ -5301,36 +5238,36 @@
       <c r="AS26">
         <v>0</v>
       </c>
-      <c r="AU26" s="68">
+      <c r="AU26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="16">
         <v>44</v>
       </c>
       <c r="B27" s="1">
         <v>55</v>
       </c>
-      <c r="C27" s="66" t="s">
+      <c r="C27" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="D27" s="66" t="s">
+      <c r="D27" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="E27" s="66" t="s">
+      <c r="E27" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="65" t="s">
+      <c r="F27" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="66" t="s">
+      <c r="G27" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="H27" s="67">
+      <c r="H27" s="64">
         <v>51</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="61">
         <v>1</v>
       </c>
       <c r="J27" s="26"/>
@@ -5338,7 +5275,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L27" s="71">
+      <c r="L27" s="67">
         <f t="shared" si="1"/>
         <v>8664</v>
       </c>
@@ -5355,7 +5292,7 @@
         <f t="shared" si="4"/>
         <v>7344.5086705202311</v>
       </c>
-      <c r="Q27" s="71">
+      <c r="Q27" s="67">
         <v>4764.75</v>
       </c>
       <c r="R27" s="25">
@@ -5436,36 +5373,36 @@
       <c r="AS27">
         <v>0</v>
       </c>
-      <c r="AU27" s="68">
+      <c r="AU27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="17">
         <v>45</v>
       </c>
-      <c r="B28" s="74">
+      <c r="B28" s="1">
         <v>56</v>
       </c>
-      <c r="C28" s="66" t="s">
+      <c r="C28" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="66" t="s">
+      <c r="D28" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="E28" s="66" t="s">
+      <c r="E28" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="F28" s="65" t="s">
+      <c r="F28" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="G28" s="66" t="s">
+      <c r="G28" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H28" s="67" t="s">
+      <c r="H28" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I28" s="64">
+      <c r="I28" s="61">
         <v>1</v>
       </c>
       <c r="J28" s="26"/>
@@ -5473,7 +5410,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L28" s="71">
+      <c r="L28" s="67">
         <f t="shared" si="1"/>
         <v>2301</v>
       </c>
@@ -5490,7 +5427,7 @@
         <f t="shared" si="4"/>
         <v>1950.2890173410406</v>
       </c>
-      <c r="Q28" s="71">
+      <c r="Q28" s="67">
         <v>1265.25</v>
       </c>
       <c r="R28" s="25">
@@ -5571,36 +5508,36 @@
       <c r="AS28">
         <v>0</v>
       </c>
-      <c r="AU28" s="68">
+      <c r="AU28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="92">
-        <v>1</v>
-      </c>
-      <c r="B29" s="74" t="s">
+    <row r="29" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="15">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C29" s="66" t="s">
+      <c r="C29" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="D29" s="66" t="s">
+      <c r="D29" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="66" t="s">
+      <c r="E29" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F29" s="65" t="s">
+      <c r="F29" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="67">
+      <c r="H29" s="64">
         <v>192</v>
       </c>
-      <c r="I29" s="64">
+      <c r="I29" s="61">
         <v>12</v>
       </c>
       <c r="J29" s="26"/>
@@ -5608,7 +5545,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="71">
+      <c r="L29" s="67">
         <f t="shared" si="1"/>
         <v>178</v>
       </c>
@@ -5625,7 +5562,7 @@
         <f t="shared" si="4"/>
         <v>1803.4682080924858</v>
       </c>
-      <c r="Q29" s="71">
+      <c r="Q29" s="67">
         <v>97.5</v>
       </c>
       <c r="R29" s="25">
@@ -5649,7 +5586,7 @@
       </c>
       <c r="X29" s="28"/>
       <c r="Y29" s="31"/>
-      <c r="Z29" s="96"/>
+      <c r="Z29" s="81"/>
       <c r="AA29" s="50">
         <v>1</v>
       </c>
@@ -5706,36 +5643,36 @@
       <c r="AS29">
         <v>0</v>
       </c>
-      <c r="AU29" s="68">
+      <c r="AU29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <v>2</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="H30" s="67">
+      <c r="H30" s="64">
         <v>192</v>
       </c>
-      <c r="I30" s="64">
+      <c r="I30" s="61">
         <v>12</v>
       </c>
       <c r="J30" s="24"/>
@@ -5743,7 +5680,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L30" s="71">
+      <c r="L30" s="67">
         <f t="shared" si="1"/>
         <v>580</v>
       </c>
@@ -5760,7 +5697,7 @@
         <f t="shared" si="4"/>
         <v>5893.1791907514453</v>
       </c>
-      <c r="Q30" s="71">
+      <c r="Q30" s="67">
         <v>318.60000000000002</v>
       </c>
       <c r="R30" s="25">
@@ -5841,36 +5778,36 @@
       <c r="AS30">
         <v>0</v>
       </c>
-      <c r="AU30" s="68">
+      <c r="AU30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="92">
+    <row r="31" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="15">
         <v>3</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="66" t="s">
+      <c r="D31" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="E31" s="66" t="s">
+      <c r="E31" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="F31" s="65" t="s">
+      <c r="F31" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="66" t="s">
+      <c r="G31" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="H31" s="67">
+      <c r="H31" s="64">
         <v>192</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="61">
         <v>12</v>
       </c>
       <c r="J31" s="26"/>
@@ -5878,7 +5815,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L31" s="71">
+      <c r="L31" s="67">
         <f t="shared" si="1"/>
         <v>161</v>
       </c>
@@ -5895,7 +5832,7 @@
         <f t="shared" si="4"/>
         <v>1636.9942196531792</v>
       </c>
-      <c r="Q31" s="71">
+      <c r="Q31" s="67">
         <v>88.5</v>
       </c>
       <c r="R31" s="25">
@@ -5976,36 +5913,36 @@
       <c r="AS31">
         <v>0</v>
       </c>
-      <c r="AU31" s="68">
+      <c r="AU31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="16">
         <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="66" t="s">
+      <c r="C32" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="66" t="s">
+      <c r="D32" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="66" t="s">
+      <c r="E32" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F32" s="65" t="s">
+      <c r="F32" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="G32" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="67" t="s">
+      <c r="H32" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I32" s="64">
+      <c r="I32" s="61">
         <v>41</v>
       </c>
       <c r="J32" s="26"/>
@@ -6013,7 +5950,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L32" s="71">
+      <c r="L32" s="67">
         <f t="shared" si="1"/>
         <v>205</v>
       </c>
@@ -6030,7 +5967,7 @@
         <f t="shared" si="4"/>
         <v>7109.8265895953755</v>
       </c>
-      <c r="Q32" s="71">
+      <c r="Q32" s="67">
         <v>112.5</v>
       </c>
       <c r="R32" s="25">
@@ -6111,36 +6048,36 @@
       <c r="AS32">
         <v>0</v>
       </c>
-      <c r="AU32" s="68">
+      <c r="AU32">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <v>18</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C33" s="66" t="s">
+      <c r="C33" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="66" t="s">
+      <c r="D33" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="E33" s="66" t="s">
+      <c r="E33" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F33" s="65" t="s">
+      <c r="F33" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="64">
+      <c r="I33" s="61">
         <v>41</v>
       </c>
       <c r="J33" s="26"/>
@@ -6148,7 +6085,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L33" s="71">
+      <c r="L33" s="67">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -6165,7 +6102,7 @@
         <f t="shared" si="4"/>
         <v>1118.6127167630057</v>
       </c>
-      <c r="Q33" s="71">
+      <c r="Q33" s="67">
         <v>17.7</v>
       </c>
       <c r="R33" s="25">
@@ -6246,36 +6183,36 @@
       <c r="AS33">
         <v>0</v>
       </c>
-      <c r="AU33" s="68">
+      <c r="AU33">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="15">
         <v>6</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="66" t="s">
+      <c r="C34" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="66" t="s">
+      <c r="D34" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E34" s="66" t="s">
+      <c r="E34" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F34" s="65" t="s">
+      <c r="F34" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G34" s="66" t="s">
+      <c r="G34" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H34" s="67" t="s">
+      <c r="H34" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="I34" s="64">
+      <c r="I34" s="61">
         <v>38</v>
       </c>
       <c r="J34" s="26"/>
@@ -6283,7 +6220,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L34" s="71">
+      <c r="L34" s="67">
         <f t="shared" si="1"/>
         <v>151</v>
       </c>
@@ -6300,7 +6237,7 @@
         <f t="shared" si="4"/>
         <v>4838.2273603082849</v>
       </c>
-      <c r="Q34" s="71">
+      <c r="Q34" s="67">
         <v>82.6</v>
       </c>
       <c r="R34" s="25">
@@ -6381,36 +6318,36 @@
       <c r="AS34">
         <v>0</v>
       </c>
-      <c r="AU34" s="68">
+      <c r="AU34">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="15">
         <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C35" s="66" t="s">
+      <c r="C35" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="D35" s="66" t="s">
+      <c r="D35" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="E35" s="66" t="s">
+      <c r="E35" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F35" s="65" t="s">
+      <c r="F35" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="66" t="s">
+      <c r="G35" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H35" s="67" t="s">
+      <c r="H35" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="I35" s="64">
+      <c r="I35" s="61">
         <v>76</v>
       </c>
       <c r="J35" s="26"/>
@@ -6418,7 +6355,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L35" s="71">
+      <c r="L35" s="67">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -6435,7 +6372,7 @@
         <f t="shared" si="4"/>
         <v>5667.6377649325632</v>
       </c>
-      <c r="Q35" s="71">
+      <c r="Q35" s="67">
         <v>48.38</v>
       </c>
       <c r="R35" s="25">
@@ -6516,36 +6453,36 @@
       <c r="AS35">
         <v>0</v>
       </c>
-      <c r="AU35" s="68">
+      <c r="AU35">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <v>27</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C36" s="66" t="s">
+      <c r="C36" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="D36" s="66" t="s">
+      <c r="D36" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="E36" s="66" t="s">
+      <c r="E36" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="F36" s="65" t="s">
+      <c r="F36" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="G36" s="66" t="s">
+      <c r="G36" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="H36" s="67" t="s">
+      <c r="H36" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I36" s="64">
+      <c r="I36" s="61">
         <v>24</v>
       </c>
       <c r="J36" s="26"/>
@@ -6553,7 +6490,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L36" s="71">
+      <c r="L36" s="67">
         <f t="shared" si="1"/>
         <v>356</v>
       </c>
@@ -6570,7 +6507,7 @@
         <f t="shared" si="4"/>
         <v>7158.3815028901736</v>
       </c>
-      <c r="Q36" s="71">
+      <c r="Q36" s="67">
         <v>193.5</v>
       </c>
       <c r="R36" s="25">
@@ -6659,36 +6596,36 @@
       <c r="AS36">
         <v>0</v>
       </c>
-      <c r="AU36" s="68">
+      <c r="AU36">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="15">
         <v>28</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="66" t="s">
+      <c r="D37" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="65" t="s">
+      <c r="F37" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="66" t="s">
+      <c r="G37" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="67" t="s">
+      <c r="H37" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="I37" s="64">
+      <c r="I37" s="61">
         <v>24</v>
       </c>
       <c r="J37" s="26"/>
@@ -6696,7 +6633,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L37" s="71">
+      <c r="L37" s="67">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
@@ -6713,7 +6650,7 @@
         <f t="shared" si="4"/>
         <v>654.79768786127158</v>
       </c>
-      <c r="Q37" s="71">
+      <c r="Q37" s="67">
         <v>17.7</v>
       </c>
       <c r="R37" s="25">
@@ -6802,36 +6739,36 @@
       <c r="AS37">
         <v>0</v>
       </c>
-      <c r="AU37" s="68">
+      <c r="AU37">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="15">
         <v>31</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="66" t="s">
+      <c r="D38" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="66" t="s">
+      <c r="E38" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F38" s="65" t="s">
+      <c r="F38" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="66" t="s">
+      <c r="G38" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H38" s="67">
+      <c r="H38" s="64">
         <v>83</v>
       </c>
-      <c r="I38" s="64">
+      <c r="I38" s="61">
         <v>1</v>
       </c>
       <c r="J38" s="26"/>
@@ -6839,7 +6776,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L38" s="71">
+      <c r="L38" s="67">
         <f t="shared" si="1"/>
         <v>5763</v>
       </c>
@@ -6856,7 +6793,7 @@
         <f t="shared" si="4"/>
         <v>4885.5491329479773</v>
       </c>
-      <c r="Q38" s="71">
+      <c r="Q38" s="67">
         <v>3169.5</v>
       </c>
       <c r="R38" s="25">
@@ -6937,36 +6874,36 @@
       <c r="AS38">
         <v>0</v>
       </c>
-      <c r="AU38" s="68">
+      <c r="AU38">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="93">
+    <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="78">
         <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="66" t="s">
+      <c r="C39" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="66" t="s">
+      <c r="D39" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="E39" s="66" t="s">
+      <c r="E39" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G39" s="66" t="s">
+      <c r="G39" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H39" s="67" t="s">
+      <c r="H39" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="I39" s="64">
+      <c r="I39" s="61">
         <v>4</v>
       </c>
       <c r="J39" s="26"/>
@@ -6974,7 +6911,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="71">
+      <c r="L39" s="67">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -6991,7 +6928,7 @@
         <f t="shared" si="4"/>
         <v>58.204238921001924</v>
       </c>
-      <c r="Q39" s="71">
+      <c r="Q39" s="67">
         <v>9.44</v>
       </c>
       <c r="R39" s="25">
@@ -7072,36 +7009,36 @@
       <c r="AS39">
         <v>0</v>
       </c>
-      <c r="AU39" s="68">
+      <c r="AU39">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="15">
         <v>33</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="66" t="s">
+      <c r="C40" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="D40" s="66" t="s">
+      <c r="D40" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="66" t="s">
+      <c r="E40" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F40" s="65" t="s">
+      <c r="F40" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G40" s="66" t="s">
+      <c r="G40" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H40" s="67" t="s">
+      <c r="H40" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="I40" s="64">
+      <c r="I40" s="61">
         <v>4</v>
       </c>
       <c r="J40" s="26"/>
@@ -7109,7 +7046,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L40" s="71">
+      <c r="L40" s="67">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -7126,7 +7063,7 @@
         <f t="shared" si="4"/>
         <v>10.173410404624276</v>
       </c>
-      <c r="Q40" s="71">
+      <c r="Q40" s="67">
         <v>1.65</v>
       </c>
       <c r="R40" s="25">
@@ -7207,36 +7144,36 @@
       <c r="AS40">
         <v>0</v>
       </c>
-      <c r="AU40" s="68">
+      <c r="AU40">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="15">
         <v>34</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="D41" s="66" t="s">
+      <c r="D41" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="E41" s="66" t="s">
+      <c r="E41" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="65" t="s">
+      <c r="F41" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G41" s="66" t="s">
+      <c r="G41" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H41" s="67" t="s">
+      <c r="H41" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="I41" s="64">
+      <c r="I41" s="61">
         <v>4</v>
       </c>
       <c r="J41" s="26"/>
@@ -7244,7 +7181,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L41" s="71">
+      <c r="L41" s="67">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -7261,7 +7198,7 @@
         <f t="shared" si="4"/>
         <v>29.102119460500962</v>
       </c>
-      <c r="Q41" s="71">
+      <c r="Q41" s="67">
         <v>4.72</v>
       </c>
       <c r="R41" s="25">
@@ -7342,36 +7279,36 @@
       <c r="AS41">
         <v>0</v>
       </c>
-      <c r="AU41" s="68">
+      <c r="AU41">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="93">
+    <row r="42" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="78">
         <v>35</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="D42" s="66" t="s">
+      <c r="D42" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="E42" s="66" t="s">
+      <c r="E42" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="65" t="s">
+      <c r="F42" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="66" t="s">
+      <c r="G42" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H42" s="67" t="s">
+      <c r="H42" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="I42" s="64">
+      <c r="I42" s="61">
         <v>2</v>
       </c>
       <c r="J42" s="26"/>
@@ -7379,7 +7316,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L42" s="71">
+      <c r="L42" s="67">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
@@ -7396,7 +7333,7 @@
         <f t="shared" si="4"/>
         <v>90.944123314065521</v>
       </c>
-      <c r="Q42" s="71">
+      <c r="Q42" s="67">
         <v>29.5</v>
       </c>
       <c r="R42" s="25">
@@ -7477,36 +7414,36 @@
       <c r="AS42">
         <v>0</v>
       </c>
-      <c r="AU42" s="68">
+      <c r="AU42">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="15">
         <v>36</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C43" s="66" t="s">
+      <c r="C43" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="D43" s="66" t="s">
+      <c r="D43" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="66" t="s">
+      <c r="E43" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F43" s="65" t="s">
+      <c r="F43" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G43" s="66" t="s">
+      <c r="G43" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H43" s="67" t="s">
+      <c r="H43" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="I43" s="64">
+      <c r="I43" s="61">
         <v>1</v>
       </c>
       <c r="J43" s="26"/>
@@ -7514,7 +7451,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L43" s="71">
+      <c r="L43" s="67">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
@@ -7531,7 +7468,7 @@
         <f t="shared" si="4"/>
         <v>23.645472061657031</v>
       </c>
-      <c r="Q43" s="71">
+      <c r="Q43" s="67">
         <v>15.34</v>
       </c>
       <c r="R43" s="25">
@@ -7612,36 +7549,36 @@
       <c r="AS43">
         <v>0</v>
       </c>
-      <c r="AU43" s="68">
+      <c r="AU43">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="16">
         <v>8</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="97">
+      <c r="C44" s="82">
         <v>505350224506</v>
       </c>
-      <c r="D44" s="66" t="s">
+      <c r="D44" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="66" t="s">
+      <c r="E44" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="65" t="s">
+      <c r="F44" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="66" t="s">
+      <c r="G44" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H44" s="67">
+      <c r="H44" s="64">
         <v>67</v>
       </c>
-      <c r="I44" s="64">
+      <c r="I44" s="61">
         <v>25</v>
       </c>
       <c r="J44" s="26"/>
@@ -7649,7 +7586,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L44" s="71">
+      <c r="L44" s="67">
         <f t="shared" si="1"/>
         <v>3339</v>
       </c>
@@ -7666,7 +7603,7 @@
         <f t="shared" si="4"/>
         <v>70751.445086705207</v>
       </c>
-      <c r="Q44" s="71">
+      <c r="Q44" s="67">
         <v>1836</v>
       </c>
       <c r="R44" s="25">
@@ -7755,36 +7692,36 @@
       <c r="AS44">
         <v>0</v>
       </c>
-      <c r="AU44" s="68">
+      <c r="AU44">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>9</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C45" s="66" t="s">
+      <c r="C45" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="D45" s="66" t="s">
+      <c r="D45" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F45" s="65" t="s">
+      <c r="F45" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="G45" s="66" t="s">
+      <c r="G45" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="H45" s="67">
+      <c r="H45" s="64">
         <v>70</v>
       </c>
-      <c r="I45" s="64">
+      <c r="I45" s="61">
         <v>25</v>
       </c>
       <c r="J45" s="26"/>
@@ -7792,7 +7729,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L45" s="71">
+      <c r="L45" s="67">
         <f t="shared" si="1"/>
         <v>2314</v>
       </c>
@@ -7809,7 +7746,7 @@
         <f t="shared" si="4"/>
         <v>46589.595375722543</v>
       </c>
-      <c r="Q45" s="71">
+      <c r="Q45" s="67">
         <v>1209</v>
       </c>
       <c r="R45" s="25">
@@ -7898,36 +7835,36 @@
       <c r="AS45">
         <v>0</v>
       </c>
-      <c r="AU45" s="68">
+      <c r="AU45">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="15">
         <v>40</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="66" t="s">
+      <c r="D46" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="66" t="s">
+      <c r="E46" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F46" s="65" t="s">
+      <c r="F46" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="G46" s="66" t="s">
+      <c r="G46" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="H46" s="67">
+      <c r="H46" s="64">
         <v>58</v>
       </c>
-      <c r="I46" s="64">
+      <c r="I46" s="61">
         <v>7</v>
       </c>
       <c r="J46" s="26"/>
@@ -7935,7 +7872,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L46" s="71">
+      <c r="L46" s="67">
         <f t="shared" si="1"/>
         <v>1663</v>
       </c>
@@ -7952,7 +7889,7 @@
         <f t="shared" si="4"/>
         <v>9864.7398843930641</v>
       </c>
-      <c r="Q46" s="71">
+      <c r="Q46" s="67">
         <v>914.25</v>
       </c>
       <c r="R46" s="25">
@@ -8033,36 +7970,36 @@
       <c r="AS46">
         <v>0</v>
       </c>
-      <c r="AU46" s="68">
+      <c r="AU46">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="16">
         <v>41</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C47" s="66" t="s">
+      <c r="C47" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D47" s="66" t="s">
+      <c r="D47" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="66" t="s">
+      <c r="E47" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="F47" s="65" t="s">
+      <c r="F47" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G47" s="66" t="s">
+      <c r="G47" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="H47" s="67" t="s">
+      <c r="H47" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="I47" s="64">
+      <c r="I47" s="61">
         <v>14</v>
       </c>
       <c r="J47" s="26"/>
@@ -8070,7 +8007,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L47" s="71">
+      <c r="L47" s="67">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
@@ -8087,7 +8024,7 @@
         <f t="shared" si="4"/>
         <v>825.43352601156062</v>
       </c>
-      <c r="Q47" s="71">
+      <c r="Q47" s="67">
         <v>38.25</v>
       </c>
       <c r="R47" s="25">
@@ -8168,36 +8105,36 @@
       <c r="AS47">
         <v>0</v>
       </c>
-      <c r="AU47" s="68">
+      <c r="AU47">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="93">
+    <row r="48" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="78">
         <v>11</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="D48" s="91" t="s">
+      <c r="D48" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="E48" s="66" t="s">
+      <c r="E48" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="F48" s="65" t="s">
+      <c r="F48" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G48" s="66" t="s">
+      <c r="G48" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="H48" s="67" t="s">
+      <c r="H48" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I48" s="64">
+      <c r="I48" s="61">
         <v>5</v>
       </c>
       <c r="J48" s="26"/>
@@ -8205,7 +8142,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L48" s="71">
+      <c r="L48" s="67">
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
@@ -8222,7 +8159,7 @@
         <f t="shared" si="4"/>
         <v>838.15028901734104</v>
       </c>
-      <c r="Q48" s="71">
+      <c r="Q48" s="67">
         <v>108.75</v>
       </c>
       <c r="R48" s="25">
@@ -8303,36 +8240,36 @@
       <c r="AS48">
         <v>0</v>
       </c>
-      <c r="AU48" s="68">
+      <c r="AU48">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>12</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C49" s="66" t="s">
+      <c r="C49" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="D49" s="66" t="s">
+      <c r="D49" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="E49" s="66" t="s">
+      <c r="E49" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="65" t="s">
+      <c r="F49" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="G49" s="66" t="s">
+      <c r="G49" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="H49" s="67" t="s">
+      <c r="H49" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="64">
+      <c r="I49" s="61">
         <v>5</v>
       </c>
       <c r="J49" s="26"/>
@@ -8357,7 +8294,7 @@
         <f t="shared" si="4"/>
         <v>136.41618497109823</v>
       </c>
-      <c r="Q49" s="71">
+      <c r="Q49" s="67">
         <v>17.7</v>
       </c>
       <c r="R49" s="25">
@@ -8438,14 +8375,14 @@
       <c r="AS49">
         <v>0</v>
       </c>
-      <c r="AU49" s="68">
+      <c r="AU49">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:47" ht="19.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="70">
+    <row r="50" spans="1:47" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="65"/>
+      <c r="H50" s="65"/>
+      <c r="I50" s="66">
         <f>SUM(I4:I49)</f>
         <v>537</v>
       </c>
@@ -8462,7 +8399,7 @@
         <f>SUM(P4:P28)</f>
         <v>433397.5028901734</v>
       </c>
-      <c r="Q50" s="72"/>
+      <c r="Q50" s="5"/>
       <c r="R50" s="27">
         <f>SUM(R4:R28)</f>
         <v>281166.63000000006</v>
@@ -8509,867 +8446,867 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE6ABBF-4459-4CE3-9AF9-CCFD89BCD547}">
   <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="63" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="63" t="s">
         <v>69</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="F1" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="G1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="63" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="J1" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="K1" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="L1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="M1" s="66" t="s">
+      <c r="M1" s="63" t="s">
         <v>89</v>
       </c>
-      <c r="N1" s="66" t="s">
+      <c r="N1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="O1" s="66" t="s">
+      <c r="O1" s="63" t="s">
         <v>94</v>
       </c>
-      <c r="P1" s="66" t="s">
+      <c r="P1" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="66" t="s">
+      <c r="Q1" s="63" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="66" t="s">
+      <c r="R1" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="66" t="s">
+      <c r="S1" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="T1" s="66" t="s">
+      <c r="T1" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="U1" s="66" t="s">
+      <c r="U1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="66" t="s">
+      <c r="V1" s="63" t="s">
         <v>120</v>
       </c>
-      <c r="W1" s="66" t="s">
+      <c r="W1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="X1" s="63" t="s">
         <v>75</v>
       </c>
-      <c r="Y1" s="66" t="s">
+      <c r="Y1" s="63" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="66" t="s">
+      <c r="Z1" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="AA1" s="66" t="s">
+      <c r="AA1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="AB1" s="66" t="s">
+      <c r="AB1" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="AC1" s="66" t="s">
+      <c r="AC1" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="AD1" s="66" t="s">
+      <c r="AD1" s="63" t="s">
         <v>80</v>
       </c>
-      <c r="AE1" s="66" t="s">
+      <c r="AE1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="AF1" s="66" t="s">
+      <c r="AF1" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="66" t="s">
+      <c r="AG1" s="63" t="s">
         <v>59</v>
       </c>
-      <c r="AH1" s="66" t="s">
+      <c r="AH1" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="AI1" s="66" t="s">
+      <c r="AI1" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="AJ1" s="66" t="s">
+      <c r="AJ1" s="63" t="s">
         <v>112</v>
       </c>
-      <c r="AK1" s="66" t="s">
+      <c r="AK1" s="63" t="s">
         <v>113</v>
       </c>
-      <c r="AL1" s="66" t="s">
+      <c r="AL1" s="63" t="s">
         <v>114</v>
       </c>
-      <c r="AM1" s="66" t="s">
+      <c r="AM1" s="63" t="s">
         <v>115</v>
       </c>
-      <c r="AN1" s="66" t="s">
+      <c r="AN1" s="63" t="s">
         <v>116</v>
       </c>
-      <c r="AO1" s="66" t="s">
+      <c r="AO1" s="63" t="s">
         <v>117</v>
       </c>
-      <c r="AP1" s="97">
+      <c r="AP1" s="82">
         <v>505350224506</v>
       </c>
-      <c r="AQ1" s="66" t="s">
+      <c r="AQ1" s="63" t="s">
         <v>61</v>
       </c>
-      <c r="AR1" s="66" t="s">
+      <c r="AR1" s="63" t="s">
         <v>121</v>
       </c>
-      <c r="AS1" s="66" t="s">
+      <c r="AS1" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="AT1" s="66" t="s">
+      <c r="AT1" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="AU1" s="66" t="s">
+      <c r="AU1" s="63" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:47" ht="81" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="63" t="s">
         <v>189</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="E2" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="63" t="s">
         <v>164</v>
       </c>
-      <c r="G2" s="66" t="s">
+      <c r="G2" s="63" t="s">
         <v>143</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="J2" s="66" t="s">
+      <c r="J2" s="63" t="s">
         <v>190</v>
       </c>
-      <c r="K2" s="66" t="s">
+      <c r="K2" s="63" t="s">
         <v>144</v>
       </c>
-      <c r="L2" s="66" t="s">
+      <c r="L2" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="M2" s="66" t="s">
+      <c r="M2" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="N2" s="66" t="s">
+      <c r="N2" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="66" t="s">
+      <c r="O2" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="R2" s="66" t="s">
+      <c r="R2" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="S2" s="66" t="s">
+      <c r="S2" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="T2" s="66" t="s">
+      <c r="T2" s="63" t="s">
         <v>192</v>
       </c>
-      <c r="U2" s="66" t="s">
+      <c r="U2" s="63" t="s">
         <v>155</v>
       </c>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="W2" s="66" t="s">
+      <c r="W2" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="X2" s="66" t="s">
+      <c r="X2" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" s="66" t="s">
+      <c r="Y2" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="Z2" s="66" t="s">
+      <c r="Z2" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="AA2" s="66" t="s">
+      <c r="AA2" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AB2" s="65" t="s">
+      <c r="AB2" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="AC2" s="66" t="s">
+      <c r="AC2" s="63" t="s">
         <v>136</v>
       </c>
-      <c r="AD2" s="66" t="s">
+      <c r="AD2" s="63" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" s="66" t="s">
+      <c r="AE2" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="AF2" s="66" t="s">
+      <c r="AF2" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="AG2" s="66" t="s">
+      <c r="AG2" s="63" t="s">
         <v>138</v>
       </c>
-      <c r="AH2" s="66" t="s">
+      <c r="AH2" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="AI2" s="66" t="s">
+      <c r="AI2" s="63" t="s">
         <v>141</v>
       </c>
-      <c r="AJ2" s="66" t="s">
+      <c r="AJ2" s="63" t="s">
         <v>151</v>
       </c>
-      <c r="AK2" s="66" t="s">
+      <c r="AK2" s="63" t="s">
         <v>152</v>
       </c>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="AM2" s="66" t="s">
+      <c r="AM2" s="63" t="s">
         <v>154</v>
       </c>
-      <c r="AN2" s="66" t="s">
+      <c r="AN2" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="AO2" s="66" t="s">
+      <c r="AO2" s="63" t="s">
         <v>149</v>
       </c>
-      <c r="AP2" s="66" t="s">
+      <c r="AP2" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AQ2" s="66" t="s">
+      <c r="AQ2" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="AR2" s="66" t="s">
+      <c r="AR2" s="63" t="s">
         <v>153</v>
       </c>
-      <c r="AS2" s="66" t="s">
+      <c r="AS2" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="AT2" s="91" t="s">
+      <c r="AT2" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="AU2" s="66" t="s">
+      <c r="AU2" s="63" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:47" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="98" t="s">
+      <c r="D3" s="79" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="66" t="s">
+      <c r="E3" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="66" t="s">
+      <c r="F3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="66" t="s">
+      <c r="G3" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="66" t="s">
+      <c r="I3" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="79" t="s">
         <v>131</v>
       </c>
-      <c r="K3" s="66" t="s">
+      <c r="K3" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="66" t="s">
+      <c r="L3" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="66" t="s">
+      <c r="M3" s="63" t="s">
         <v>90</v>
       </c>
-      <c r="N3" s="66" t="s">
+      <c r="N3" s="63" t="s">
         <v>93</v>
       </c>
-      <c r="O3" s="66" t="s">
+      <c r="O3" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="P3" s="66" t="s">
+      <c r="P3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="Q3" s="66" t="s">
+      <c r="Q3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="R3" s="66" t="s">
+      <c r="R3" s="63" t="s">
         <v>106</v>
       </c>
-      <c r="S3" s="66" t="s">
+      <c r="S3" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="T3" s="66" t="s">
+      <c r="T3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="66" t="s">
+      <c r="U3" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="V3" s="66" t="s">
+      <c r="V3" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="W3" s="66" t="s">
+      <c r="W3" s="63" t="s">
         <v>124</v>
       </c>
-      <c r="X3" s="66" t="s">
+      <c r="X3" s="63" t="s">
         <v>125</v>
       </c>
-      <c r="Y3" s="66" t="s">
+      <c r="Y3" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="Z3" s="66" t="s">
+      <c r="Z3" s="63" t="s">
         <v>76</v>
       </c>
-      <c r="AA3" s="66" t="s">
+      <c r="AA3" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AB3" s="66" t="s">
+      <c r="AB3" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AC3" s="66" t="s">
+      <c r="AC3" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AD3" s="66" t="s">
+      <c r="AD3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AE3" s="66" t="s">
+      <c r="AE3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AF3" s="66" t="s">
+      <c r="AF3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AG3" s="66" t="s">
+      <c r="AG3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AH3" s="66" t="s">
+      <c r="AH3" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="AI3" s="66" t="s">
+      <c r="AI3" s="63" t="s">
         <v>102</v>
       </c>
-      <c r="AJ3" s="66" t="s">
+      <c r="AJ3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AK3" s="66" t="s">
+      <c r="AK3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AL3" s="66" t="s">
+      <c r="AL3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AM3" s="66" t="s">
+      <c r="AM3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AN3" s="66" t="s">
+      <c r="AN3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AO3" s="66" t="s">
+      <c r="AO3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AP3" s="66" t="s">
+      <c r="AP3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AQ3" s="66" t="s">
+      <c r="AQ3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="AR3" s="66" t="s">
+      <c r="AR3" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="AS3" s="66" t="s">
+      <c r="AS3" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="AT3" s="66" t="s">
+      <c r="AT3" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="AU3" s="66" t="s">
+      <c r="AU3" s="63" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:47" ht="49" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="62" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="62" t="s">
         <v>132</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="62" t="s">
         <v>71</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="62" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="65" t="s">
+      <c r="G4" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="H4" s="65" t="s">
+      <c r="H4" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="J4" s="65" t="s">
+      <c r="J4" s="62" t="s">
         <v>133</v>
       </c>
-      <c r="K4" s="65" t="s">
+      <c r="K4" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="L4" s="65" t="s">
+      <c r="L4" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="62" t="s">
         <v>98</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="S4" s="65" t="s">
+      <c r="S4" s="62" t="s">
         <v>110</v>
       </c>
-      <c r="T4" s="65" t="s">
+      <c r="T4" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="U4" s="65" t="s">
+      <c r="U4" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="62" t="s">
         <v>120</v>
       </c>
-      <c r="W4" s="65" t="s">
+      <c r="W4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="65" t="s">
+      <c r="X4" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="Y4" s="65" t="s">
+      <c r="Y4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="AA4" s="65" t="s">
+      <c r="AA4" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AB4" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="AC4" s="65" t="s">
+      <c r="AC4" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="AD4" s="65" t="s">
+      <c r="AD4" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="AE4" s="65" t="s">
+      <c r="AE4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AF4" s="65" t="s">
+      <c r="AF4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AG4" s="65" t="s">
+      <c r="AG4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AH4" s="65" t="s">
+      <c r="AH4" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="AI4" s="65" t="s">
+      <c r="AI4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AJ4" s="65" t="s">
+      <c r="AJ4" s="62" t="s">
         <v>112</v>
       </c>
-      <c r="AK4" s="65" t="s">
+      <c r="AK4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AL4" s="65" t="s">
+      <c r="AL4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AM4" s="65" t="s">
+      <c r="AM4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AN4" s="65" t="s">
+      <c r="AN4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AO4" s="65" t="s">
+      <c r="AO4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AP4" s="65" t="s">
+      <c r="AP4" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="AQ4" s="65" t="s">
+      <c r="AQ4" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="AR4" s="65" t="s">
+      <c r="AR4" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="AS4" s="65" t="s">
+      <c r="AS4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AT4" s="65" t="s">
+      <c r="AT4" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AU4" s="65" t="s">
+      <c r="AU4" s="62" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:47" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="66" t="s">
+      <c r="E5" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="79" t="s">
         <v>191</v>
       </c>
-      <c r="K5" s="66" t="s">
+      <c r="K5" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="66" t="s">
+      <c r="L5" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="N5" s="66" t="s">
+      <c r="N5" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="O5" s="66" t="s">
+      <c r="O5" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="P5" s="66" t="s">
+      <c r="P5" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="Q5" s="66" t="s">
+      <c r="Q5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="R5" s="66" t="s">
+      <c r="R5" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="S5" s="66" t="s">
+      <c r="S5" s="63" t="s">
         <v>111</v>
       </c>
-      <c r="T5" s="66" t="s">
+      <c r="T5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="U5" s="66" t="s">
+      <c r="U5" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="V5" s="66" t="s">
+      <c r="V5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="W5" s="66" t="s">
+      <c r="W5" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="X5" s="66" t="s">
+      <c r="X5" s="63" t="s">
         <v>97</v>
       </c>
-      <c r="Y5" s="66" t="s">
+      <c r="Y5" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="Z5" s="66" t="s">
+      <c r="Z5" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="AA5" s="66" t="s">
+      <c r="AA5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AB5" s="66" t="s">
+      <c r="AB5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AC5" s="66" t="s">
+      <c r="AC5" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="66" t="s">
+      <c r="AD5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AE5" s="66" t="s">
+      <c r="AE5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AF5" s="66" t="s">
+      <c r="AF5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AG5" s="66" t="s">
+      <c r="AG5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AH5" s="66" t="s">
+      <c r="AH5" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="AI5" s="66" t="s">
+      <c r="AI5" s="63" t="s">
         <v>104</v>
       </c>
-      <c r="AJ5" s="66" t="s">
+      <c r="AJ5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AK5" s="66" t="s">
+      <c r="AK5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AL5" s="66" t="s">
+      <c r="AL5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AM5" s="66" t="s">
+      <c r="AM5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AN5" s="66" t="s">
+      <c r="AN5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AO5" s="66" t="s">
+      <c r="AO5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AP5" s="66" t="s">
+      <c r="AP5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AQ5" s="66" t="s">
+      <c r="AQ5" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="AR5" s="66" t="s">
+      <c r="AR5" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="AS5" s="66" t="s">
+      <c r="AS5" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="AT5" s="66" t="s">
+      <c r="AT5" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="AU5" s="66" t="s">
+      <c r="AU5" s="63" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:47" ht="33" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="67" t="s">
+      <c r="C6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="64">
         <v>55</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="64">
         <v>51</v>
       </c>
-      <c r="G6" s="67">
+      <c r="G6" s="64">
         <v>55</v>
       </c>
-      <c r="H6" s="67" t="s">
+      <c r="H6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="64">
         <v>59</v>
       </c>
-      <c r="J6" s="67" t="s">
+      <c r="J6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="K6" s="67">
+      <c r="K6" s="64">
         <v>68</v>
       </c>
-      <c r="L6" s="67">
+      <c r="L6" s="64">
         <v>55</v>
       </c>
-      <c r="M6" s="67" t="s">
+      <c r="M6" s="64" t="s">
         <v>92</v>
       </c>
-      <c r="N6" s="67">
+      <c r="N6" s="64">
         <v>55</v>
       </c>
-      <c r="O6" s="67">
+      <c r="O6" s="64">
         <v>9</v>
       </c>
-      <c r="P6" s="67" t="s">
+      <c r="P6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="Q6" s="67">
+      <c r="Q6" s="64">
         <v>58</v>
       </c>
-      <c r="R6" s="67" t="s">
+      <c r="R6" s="64" t="s">
         <v>108</v>
       </c>
-      <c r="S6" s="67">
+      <c r="S6" s="64">
         <v>55</v>
       </c>
-      <c r="T6" s="67">
+      <c r="T6" s="64">
         <v>9</v>
       </c>
-      <c r="U6" s="67">
+      <c r="U6" s="64">
         <v>55</v>
       </c>
-      <c r="V6" s="67" t="s">
+      <c r="V6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="W6" s="67" t="s">
+      <c r="W6" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="X6" s="67">
+      <c r="X6" s="64">
         <v>55</v>
       </c>
-      <c r="Y6" s="67">
+      <c r="Y6" s="64">
         <v>51</v>
       </c>
-      <c r="Z6" s="67" t="s">
+      <c r="Z6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="AA6" s="67">
+      <c r="AA6" s="64">
         <v>192</v>
       </c>
-      <c r="AB6" s="67">
+      <c r="AB6" s="64">
         <v>192</v>
       </c>
-      <c r="AC6" s="67">
+      <c r="AC6" s="64">
         <v>192</v>
       </c>
-      <c r="AD6" s="67" t="s">
+      <c r="AD6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="AE6" s="67" t="s">
+      <c r="AE6" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="AF6" s="67" t="s">
+      <c r="AF6" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="AG6" s="67" t="s">
+      <c r="AG6" s="64" t="s">
         <v>162</v>
       </c>
-      <c r="AH6" s="67" t="s">
+      <c r="AH6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="AI6" s="67" t="s">
+      <c r="AI6" s="64" t="s">
         <v>68</v>
       </c>
-      <c r="AJ6" s="67">
+      <c r="AJ6" s="64">
         <v>83</v>
       </c>
-      <c r="AK6" s="67" t="s">
+      <c r="AK6" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="AL6" s="67" t="s">
+      <c r="AL6" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="AM6" s="67" t="s">
+      <c r="AM6" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="AN6" s="67" t="s">
+      <c r="AN6" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="AO6" s="67" t="s">
+      <c r="AO6" s="64" t="s">
         <v>177</v>
       </c>
-      <c r="AP6" s="67">
+      <c r="AP6" s="64">
         <v>67</v>
       </c>
-      <c r="AQ6" s="67">
+      <c r="AQ6" s="64">
         <v>70</v>
       </c>
-      <c r="AR6" s="67">
+      <c r="AR6" s="64">
         <v>58</v>
       </c>
-      <c r="AS6" s="67" t="s">
+      <c r="AS6" s="64" t="s">
         <v>180</v>
       </c>
-      <c r="AT6" s="67" t="s">
+      <c r="AT6" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="AU6" s="67" t="s">
+      <c r="AU6" s="64" t="s">
         <v>68</v>
       </c>
     </row>

--- a/2_BRD/20330001 -  Rev 01.xlsx
+++ b/2_BRD/20330001 -  Rev 01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simas/Проекты/Sulzer/sulzer_06/2_BRD/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBScript\sulzer_06\2_BRD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1762547-8CE8-FA49-8BEB-FD5A1F8473E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1805CE77-071A-489C-8D90-5DF3C7724B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="500" yWindow="740" windowWidth="28900" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMU" sheetId="2" r:id="rId1"/>
@@ -43,17 +43,10 @@
   <commentList>
     <comment ref="I13" authorId="0" shapeId="0" xr:uid="{798078CF-E7E8-4BC2-96E5-9F1CD322931E}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Цепочка примечаний]
+Ваша версия Excel позволяет прочитать эту цепочку примечаний, но если открыть файл в более поздней версии Excel, все внесенные в нее изменения будут удалены. Подробнее: https://go.microsoft.com/fwlink/?linkid=870924
+Комментарий:
     1 set = 2 pcs;</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -664,11 +657,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="00000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="168" formatCode="00000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1209,7 +1202,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1267,31 +1260,31 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1300,13 +1293,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1352,7 +1345,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,7 +1360,7 @@
     <xf numFmtId="1" fontId="12" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1376,10 +1369,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1397,34 +1390,34 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="30" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1442,72 +1435,72 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1808,71 +1801,71 @@
   </sheetPr>
   <dimension ref="A1:AU50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="13" ySplit="3" topLeftCell="N4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
       <selection pane="bottomRight" activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.83203125" customWidth="1"/>
+    <col min="4" max="4" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.1640625" customWidth="1"/>
-    <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="13" max="13" width="16.5" customWidth="1"/>
-    <col min="14" max="14" width="2.5" customWidth="1"/>
-    <col min="15" max="15" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
+    <col min="13" max="13" width="16.44140625" customWidth="1"/>
+    <col min="14" max="14" width="2.44140625" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" customWidth="1"/>
     <col min="16" max="16" width="16.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
     <col min="18" max="18" width="16.33203125" customWidth="1"/>
     <col min="19" max="19" width="6.6640625" style="10" customWidth="1"/>
-    <col min="20" max="20" width="14.5" customWidth="1"/>
+    <col min="20" max="20" width="14.44140625" customWidth="1"/>
     <col min="21" max="21" width="16" customWidth="1"/>
-    <col min="22" max="23" width="6.5" style="2" customWidth="1"/>
+    <col min="22" max="23" width="6.44140625" style="2" customWidth="1"/>
     <col min="24" max="24" width="14.33203125" customWidth="1"/>
-    <col min="25" max="25" width="7.5" customWidth="1"/>
+    <col min="25" max="25" width="7.44140625" customWidth="1"/>
     <col min="26" max="26" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="12.83203125" customWidth="1"/>
+    <col min="27" max="28" width="12.77734375" customWidth="1"/>
     <col min="29" max="29" width="15.6640625" customWidth="1"/>
-    <col min="30" max="30" width="14.1640625" customWidth="1"/>
-    <col min="31" max="31" width="3.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.83203125" customWidth="1"/>
+    <col min="30" max="30" width="14.109375" customWidth="1"/>
+    <col min="31" max="31" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.77734375" customWidth="1"/>
     <col min="33" max="33" width="12.6640625" customWidth="1"/>
-    <col min="34" max="34" width="12.1640625" customWidth="1"/>
+    <col min="34" max="34" width="12.109375" customWidth="1"/>
     <col min="35" max="35" width="12.6640625" customWidth="1"/>
-    <col min="36" max="36" width="3.83203125" customWidth="1"/>
+    <col min="36" max="36" width="3.77734375" customWidth="1"/>
     <col min="37" max="37" width="7.33203125" customWidth="1"/>
-    <col min="38" max="38" width="2.5" customWidth="1"/>
+    <col min="38" max="38" width="2.44140625" customWidth="1"/>
     <col min="39" max="39" width="6.33203125" customWidth="1"/>
-    <col min="40" max="40" width="4.5" customWidth="1"/>
+    <col min="40" max="40" width="4.44140625" customWidth="1"/>
     <col min="41" max="41" width="5.33203125" customWidth="1"/>
-    <col min="42" max="42" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.83203125"/>
+    <col min="42" max="42" width="63.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.77734375"/>
     <col min="44" max="44" width="7.6640625" customWidth="1"/>
-    <col min="45" max="45" width="8.83203125" customWidth="1"/>
+    <col min="45" max="45" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="36" customFormat="1" ht="23.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:47" s="36" customFormat="1" ht="23.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="J1" s="51" t="s">
         <v>7</v>
       </c>
       <c r="K1" s="53">
         <v>1</v>
       </c>
-      <c r="L1" s="91" t="s">
+      <c r="L1" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="92"/>
+      <c r="M1" s="95"/>
       <c r="N1" s="37"/>
       <c r="O1" s="38" t="s">
         <v>10</v>
@@ -1887,28 +1880,28 @@
         <v>19</v>
       </c>
       <c r="S1" s="40"/>
-      <c r="T1" s="93" t="s">
+      <c r="T1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="94"/>
-      <c r="V1" s="97" t="s">
+      <c r="U1" s="97"/>
+      <c r="V1" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="W1" s="98"/>
-      <c r="X1" s="98"/>
-      <c r="Y1" s="98"/>
-      <c r="Z1" s="98"/>
-      <c r="AA1" s="98"/>
-      <c r="AB1" s="98"/>
-      <c r="AC1" s="99"/>
-      <c r="AF1" s="83" t="s">
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="101"/>
+      <c r="AA1" s="101"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="102"/>
+      <c r="AF1" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="AG1" s="84"/>
-      <c r="AH1" s="84"/>
-      <c r="AI1" s="85"/>
+      <c r="AG1" s="87"/>
+      <c r="AH1" s="87"/>
+      <c r="AI1" s="88"/>
     </row>
-    <row r="2" spans="1:47" s="10" customFormat="1" ht="22" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" s="10" customFormat="1" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J2" s="52" t="s">
         <v>23</v>
       </c>
@@ -1922,32 +1915,32 @@
         <v>21</v>
       </c>
       <c r="N2" s="43"/>
-      <c r="O2" s="89" t="s">
+      <c r="O2" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="89" t="str">
+      <c r="P2" s="93"/>
+      <c r="Q2" s="92" t="str">
         <f>O2</f>
         <v>Ensival</v>
       </c>
-      <c r="R2" s="90"/>
+      <c r="R2" s="93"/>
       <c r="S2" s="14"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="96"/>
-      <c r="V2" s="100"/>
-      <c r="W2" s="101"/>
-      <c r="X2" s="101"/>
-      <c r="Y2" s="101"/>
-      <c r="Z2" s="101"/>
-      <c r="AA2" s="101"/>
-      <c r="AB2" s="101"/>
-      <c r="AC2" s="102"/>
-      <c r="AF2" s="86"/>
-      <c r="AG2" s="87"/>
-      <c r="AH2" s="87"/>
-      <c r="AI2" s="88"/>
+      <c r="T2" s="98"/>
+      <c r="U2" s="99"/>
+      <c r="V2" s="103"/>
+      <c r="W2" s="104"/>
+      <c r="X2" s="104"/>
+      <c r="Y2" s="104"/>
+      <c r="Z2" s="104"/>
+      <c r="AA2" s="104"/>
+      <c r="AB2" s="104"/>
+      <c r="AC2" s="105"/>
+      <c r="AF2" s="89"/>
+      <c r="AG2" s="90"/>
+      <c r="AH2" s="90"/>
+      <c r="AI2" s="91"/>
     </row>
-    <row r="3" spans="1:47" s="10" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" s="10" customFormat="1" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="46" t="s">
         <v>0</v>
       </c>
@@ -2052,7 +2045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>4</v>
       </c>
@@ -2159,35 +2152,35 @@
       </c>
       <c r="AI4" s="22"/>
       <c r="AK4" s="21"/>
-      <c r="AM4" s="103" t="s">
+      <c r="AM4" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="AN4" s="104">
+      <c r="AN4" s="84">
         <f t="shared" ref="AN4:AN49" si="13">I4</f>
         <v>3</v>
       </c>
-      <c r="AO4" s="103" t="s">
+      <c r="AO4" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="AP4" s="105" t="str">
+      <c r="AP4" s="85" t="str">
         <f t="shared" ref="AP4:AP49" si="14">D4</f>
         <v>BEARING NUT</v>
       </c>
-      <c r="AQ4" s="104">
+      <c r="AQ4" s="84">
         <f t="shared" ref="AQ4:AQ49" si="15">IF(B4&gt;0, B4, "")</f>
         <v>2</v>
       </c>
-      <c r="AR4" s="103">
+      <c r="AR4" s="83">
         <v>2001</v>
       </c>
-      <c r="AS4" s="103">
+      <c r="AS4" s="83">
         <v>0</v>
       </c>
       <c r="AU4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
         <v>5</v>
       </c>
@@ -2322,7 +2315,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>47</v>
       </c>
@@ -2466,7 +2459,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>13</v>
       </c>
@@ -2612,7 +2605,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="78">
         <v>14</v>
       </c>
@@ -2747,7 +2740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>15</v>
       </c>
@@ -2890,7 +2883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>16</v>
       </c>
@@ -3025,7 +3018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>19</v>
       </c>
@@ -3168,7 +3161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="15">
         <v>48</v>
       </c>
@@ -3312,7 +3305,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="78">
         <v>20</v>
       </c>
@@ -3447,7 +3440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>21</v>
       </c>
@@ -3590,7 +3583,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>22</v>
       </c>
@@ -3725,7 +3718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="78">
         <v>23</v>
       </c>
@@ -3868,7 +3861,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>24</v>
       </c>
@@ -4003,7 +3996,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>25</v>
       </c>
@@ -4138,7 +4131,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78">
         <v>26</v>
       </c>
@@ -4273,7 +4266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="16">
         <v>29</v>
       </c>
@@ -4408,7 +4401,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>30</v>
       </c>
@@ -4551,7 +4544,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>37</v>
       </c>
@@ -4686,7 +4679,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="16">
         <v>38</v>
       </c>
@@ -4829,7 +4822,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="15">
         <v>39</v>
       </c>
@@ -4964,7 +4957,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>42</v>
       </c>
@@ -5099,7 +5092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>43</v>
       </c>
@@ -5242,7 +5235,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>44</v>
       </c>
@@ -5377,7 +5370,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>45</v>
       </c>
@@ -5512,7 +5505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="15">
         <v>1</v>
       </c>
@@ -5647,7 +5640,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>2</v>
       </c>
@@ -5782,7 +5775,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="15">
         <v>3</v>
       </c>
@@ -5917,7 +5910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16">
         <v>17</v>
       </c>
@@ -6052,7 +6045,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>18</v>
       </c>
@@ -6187,7 +6180,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="15">
         <v>6</v>
       </c>
@@ -6322,7 +6315,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="15">
         <v>7</v>
       </c>
@@ -6457,7 +6450,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>27</v>
       </c>
@@ -6600,7 +6593,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>28</v>
       </c>
@@ -6743,7 +6736,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>31</v>
       </c>
@@ -6878,7 +6871,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="78">
         <v>32</v>
       </c>
@@ -7013,7 +7006,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>33</v>
       </c>
@@ -7148,7 +7141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>34</v>
       </c>
@@ -7283,7 +7276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="78">
         <v>35</v>
       </c>
@@ -7418,7 +7411,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>36</v>
       </c>
@@ -7553,7 +7546,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="16">
         <v>8</v>
       </c>
@@ -7696,7 +7689,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>9</v>
       </c>
@@ -7839,7 +7832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="15">
         <v>40</v>
       </c>
@@ -7974,7 +7967,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="16">
         <v>41</v>
       </c>
@@ -8109,7 +8102,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:47" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="78">
         <v>11</v>
       </c>
@@ -8244,7 +8237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:47" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="15">
         <v>12</v>
       </c>
@@ -8379,7 +8372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:47" ht="19.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" ht="19.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D50" s="65"/>
       <c r="H50" s="65"/>
       <c r="I50" s="66">
@@ -8446,13 +8439,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE6ABBF-4459-4CE3-9AF9-CCFD89BCD547}">
   <dimension ref="A1:AU6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AU6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:47" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="44" t="s">
         <v>31</v>
       </c>
@@ -8595,7 +8588,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="81" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="44" t="s">
         <v>32</v>
       </c>
@@ -8738,7 +8731,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="44" t="s">
         <v>29</v>
       </c>
@@ -8881,7 +8874,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="49" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="44" t="s">
         <v>30</v>
       </c>
@@ -9024,7 +9017,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="44" t="s">
         <v>28</v>
       </c>
@@ -9167,7 +9160,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="33" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="44" t="s">
         <v>33</v>
       </c>

--- a/2_BRD/20330001 -  Rev 01.xlsx
+++ b/2_BRD/20330001 -  Rev 01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VBScript\sulzer_06\2_BRD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1805CE77-071A-489C-8D90-5DF3C7724B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE801BC-CF33-4FC2-92F4-EE042E278D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMU" sheetId="2" r:id="rId1"/>
